--- a/DDAf_2023_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>

--- a/DDAf_2023_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab12.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F33A1E80-63BE-4369-9A92-ECD1DBC9F6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D8F4FB4-C816-4C71-82AC-A56EAF4937E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$C$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$I$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="170">
   <si>
     <t>Tableau 12 : Indicateurs de genre</t>
   </si>
@@ -430,7 +442,7 @@
     <t>CEEAC</t>
   </si>
   <si>
-    <t>CÉDÉAO</t>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
@@ -508,9 +520,6 @@
     <t>RDM, États fragiles</t>
   </si>
   <si>
-    <t>États extrêmement fragiles</t>
-  </si>
-  <si>
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
@@ -518,9 +527,6 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
-  </si>
-  <si>
-    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2021), Institutions sociales et indice de parité hommes-femmes, Centre de développement de l'OCDE (mise à jour avec une nouvelle méthodologie, décembre 2018).</t>
@@ -544,7 +550,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
@@ -552,19 +558,13 @@
     <numFmt numFmtId="166" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -854,207 +854,191 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1092,7 +1076,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1104,7 +1088,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1151,6 +1135,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1186,6 +1187,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1337,24 +1355,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C2DD64-30A6-4854-975F-E46469E850D8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="63" customWidth="1"/>
     <col min="4" max="10" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1464,194 +1481,194 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>0.61099999999999999</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>0.996</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>0.56699999999999995</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="24">
         <v>59.2</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="26" t="s">
+      <c r="H5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>1.014</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>0.55300000000000005</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>38.1</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>46.5</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>26.9</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>40.5</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>37.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>0.48299999999999998</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>41.4</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>38.5</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>24.1</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>37.4</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>61.9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>24.3</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>32</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>15.5</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>15.3</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>32.9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>1.0069999999999999</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>0.44</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>27.1</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>33.1</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>12.6</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>26.2</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>35.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>0.70899999999999996</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>22.4</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>33.200000000000003</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>15.1</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <v>19.600000000000001</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>21</v>
       </c>
     </row>
@@ -1659,7 +1676,7 @@
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="17">
@@ -1688,162 +1705,162 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>0.52700000000000002</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>32.4</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>42.8</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>20.2</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>34.299999999999997</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="30">
         <v>30.9</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>0.59030000000000005</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>0.96909999999999996</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>0.5121</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>31.5</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>41.28</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>20.125</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>30.175000000000001</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>39.200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>0.433</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>0.999</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>0.504</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="25">
+      <c r="F14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="24">
         <v>31.9</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>0.56299999999999994</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>0.86399999999999999</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>51.8</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>51.1</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>26.3</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>77.7</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <v>45.4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>0.39700000000000002</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>0.68</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>43.4</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <v>56.4</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <v>24.5</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <v>35.1</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <v>54.2</v>
       </c>
     </row>
@@ -1851,7 +1868,7 @@
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="12">
@@ -1883,7 +1900,7 @@
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="12">
@@ -1915,7 +1932,7 @@
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="17">
@@ -1947,7 +1964,7 @@
       <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="12">
@@ -1979,7 +1996,7 @@
       <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="12">
@@ -2008,386 +2025,386 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>0.625</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>0.53700000000000003</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="25">
+      <c r="F22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="24">
         <v>16.399999999999999</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="24">
         <v>13.8</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="26" t="s">
+      <c r="I22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="33">
         <v>0.52944444444444005</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>0.878</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="34">
         <v>0.58787500000000004</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <v>44.04</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>48.737499999999997</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <v>29.824999999999999</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <v>53.32</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="36">
         <v>38.566666666666698</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>0.55400000000000005</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="E24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="24">
         <v>80.900000000000006</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="24">
         <v>28.2</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="26" t="s">
+      <c r="I24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>0.52400000000000002</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="25">
+      <c r="D25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="24">
         <v>72.900000000000006</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="26" t="s">
+      <c r="H25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="25">
+      <c r="D26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="24">
         <v>42</v>
       </c>
-      <c r="H26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="26" t="s">
+      <c r="H26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>0.51700000000000002</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <v>29.6</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <v>34.799999999999997</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="24">
         <v>30.8</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <v>34</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>0.60099999999999998</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <v>35.5</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="24">
         <v>50.5</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="24">
         <v>28.9</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <v>42.2</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <v>17.2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <v>0.52800000000000002</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <v>0.95199999999999996</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="25">
+      <c r="E29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="24">
         <v>47.5</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="24">
         <v>57.2</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="24">
         <v>31.6</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <v>39.200000000000003</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <v>59.4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>0.34699999999999998</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="25">
+      <c r="F30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="24">
         <v>52.7</v>
       </c>
-      <c r="H30" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="25">
+      <c r="H30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="24">
         <v>19.2</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="25">
         <v>40.700000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>0.54300000000000004</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>0.94499999999999995</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <v>27.6</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="24">
         <v>38</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="24">
         <v>21.4</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="24">
         <v>26.5</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="25">
         <v>23.5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>0.79600000000000004</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="25">
+      <c r="D32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="24">
         <v>40.700000000000003</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="26" t="s">
+      <c r="H32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="25">
+      <c r="C33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="24">
         <v>76.2</v>
       </c>
-      <c r="H33" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="26" t="s">
+      <c r="H33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2424,130 +2441,130 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>0.51</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>0.86</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>0.54500000000000004</v>
       </c>
-      <c r="F35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="25">
+      <c r="F35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="24">
         <v>89.9</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="26" t="s">
+      <c r="H35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <v>0.52900000000000003</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <v>0.94799999999999995</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="24">
         <v>46.1</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="24">
         <v>80.599999999999994</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="24">
         <v>28.5</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="24">
         <v>30</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="25">
         <v>35.200000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <v>0.54400000000000004</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="22">
         <v>0.86299999999999999</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <v>0.53500000000000003</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="24">
         <v>45.1</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="24">
         <v>54</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="24">
         <v>34.299999999999997</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="24">
         <v>61.4</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="25">
         <v>26.6</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="33">
         <v>0.56230769230768995</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="33">
         <v>0.90510000000000002</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="34">
         <v>0.48857142857142999</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="35">
         <v>38.566666666666698</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="35">
         <v>59.35</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <v>29.1</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="35">
         <v>36.071428571428598</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="36">
         <v>30.462499999999999</v>
       </c>
     </row>
@@ -2555,7 +2572,7 @@
       <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="12">
@@ -2584,34 +2601,34 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>0.70699999999999996</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="25">
+      <c r="F40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="24">
         <v>78.599999999999994</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="25">
+      <c r="H40" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="24">
         <v>64.599999999999994</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2619,7 +2636,7 @@
       <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="12">
@@ -2651,7 +2668,7 @@
       <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="12">
@@ -2680,258 +2697,258 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>0.68600000000000005</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="22">
         <v>0.83499999999999996</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <v>0.45400000000000001</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="24">
         <v>50.8</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="24">
         <v>73.400000000000006</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="24">
         <v>25.7</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I43" s="24">
         <v>37.799999999999997</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="25">
         <v>59.3</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>0.74</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="22">
         <v>0.9</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="24">
         <v>47.6</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="24">
         <v>79.900000000000006</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="24">
         <v>9.4</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="24">
         <v>35</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="25">
         <v>52.8</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="33">
         <v>0.69183333333332997</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="33">
         <v>0.88583333333333003</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="34">
         <v>0.41899999999999998</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="35">
         <v>49.2</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="35">
         <v>73.45</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="35">
         <v>17.55</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="35">
         <v>44.65</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="36">
         <v>56.4</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="22">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="22">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="23">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="24">
         <v>39.799999999999997</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="24">
         <v>40.5</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="24">
         <v>27.7</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I46" s="24">
         <v>36.200000000000003</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="25">
         <v>53.3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="22">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="22">
         <v>0.86699999999999999</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="23">
         <v>0.59399999999999997</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="24">
         <v>32.4</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="24">
         <v>44.9</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="24">
         <v>35.5</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="24">
         <v>32.9</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="25">
         <v>13.8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="12">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="12">
         <v>0.97399999999999998</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="13">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="25">
+      <c r="F48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="14">
         <v>9.9</v>
       </c>
-      <c r="I48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="26" t="s">
+      <c r="I48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="22">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="22">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="24">
         <v>42.8</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="24">
         <v>29.7</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="24">
         <v>35.6</v>
       </c>
-      <c r="I49" s="25">
+      <c r="I49" s="24">
         <v>76.099999999999994</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="25">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="22">
         <v>0.496</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <v>0.84599999999999997</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="25">
+      <c r="F50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="24">
         <v>87.8</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="24">
         <v>44.9</v>
       </c>
-      <c r="I50" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="26">
+      <c r="I50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="25">
         <v>48.4</v>
       </c>
     </row>
@@ -2968,162 +2985,162 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="22">
         <v>0.47699999999999998</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="22">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="25">
+      <c r="E52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="24">
         <v>56.7</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="24">
         <v>87.7</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="24">
         <v>56.9</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="24">
         <v>28.2</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="25">
         <v>44.4</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="22">
         <v>0.48</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="25">
+      <c r="D53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="24">
         <v>59.7</v>
       </c>
-      <c r="H53" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="26" t="s">
+      <c r="H53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="22">
         <v>0.48</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="22">
         <v>0.89</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="23">
         <v>0.65</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="24">
         <v>47.5</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="24">
         <v>60</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="24">
         <v>33.5</v>
       </c>
-      <c r="I54" s="25">
+      <c r="I54" s="24">
         <v>41.5</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="25">
         <v>52.8</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="22">
         <v>0.434</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="22">
         <v>0.82099999999999995</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="23">
         <v>0.67100000000000004</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="24">
         <v>46</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="24">
         <v>63.5</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="24">
         <v>48.4</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I55" s="24">
         <v>39.9</v>
       </c>
-      <c r="J55" s="26">
+      <c r="J55" s="25">
         <v>28.9</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="22">
         <v>0.72399999999999998</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="23">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F56" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="25">
+      <c r="F56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="24">
         <v>84.4</v>
       </c>
-      <c r="H56" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="26">
+      <c r="H56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="25">
         <v>25.6</v>
       </c>
     </row>
@@ -3131,7 +3148,7 @@
       <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="12">
@@ -3160,66 +3177,66 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="22">
         <v>0.51200000000000001</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="22">
         <v>0.87</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="23">
         <v>0.53300000000000003</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="24">
         <v>37</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="24">
         <v>64.900000000000006</v>
       </c>
-      <c r="H58" s="25">
+      <c r="H58" s="24">
         <v>41.9</v>
       </c>
-      <c r="I58" s="25">
+      <c r="I58" s="24">
         <v>27.6</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="25">
         <v>3.6</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="22">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="22">
         <v>0.88400000000000001</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="23">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="24">
         <v>47.6</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="24">
         <v>53.7</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="24">
         <v>50.4</v>
       </c>
-      <c r="I59" s="25">
+      <c r="I59" s="24">
         <v>44.8</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="25">
         <v>40.9</v>
       </c>
     </row>
@@ -3256,1386 +3273,1348 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33" t="s">
+      <c r="A61" s="31"/>
+      <c r="B61" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="34">
+      <c r="C61" s="33">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D61" s="34">
+      <c r="D61" s="33">
         <v>0.85521428571429003</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="34">
         <v>0.59199999999999997</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="35">
         <v>43.618181818181803</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="35">
         <v>59.4</v>
       </c>
-      <c r="H61" s="36">
+      <c r="H61" s="35">
         <v>35.507692307692302</v>
       </c>
-      <c r="I61" s="36">
+      <c r="I61" s="35">
         <v>40.2545454545455</v>
       </c>
-      <c r="J61" s="37">
+      <c r="J61" s="36">
         <v>36.207692307692298</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="40"/>
-      <c r="B62" s="41" t="s">
+      <c r="A62" s="39"/>
+      <c r="B62" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <v>0.56073584905660001</v>
       </c>
-      <c r="D62" s="42">
+      <c r="D62" s="41">
         <v>0.89695833333332997</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="42">
         <v>0.53167441860465003</v>
       </c>
-      <c r="F62" s="44">
+      <c r="F62" s="43">
         <v>40.332258064516097</v>
       </c>
-      <c r="G62" s="44">
+      <c r="G62" s="43">
         <v>55.949056603773599</v>
       </c>
-      <c r="H62" s="44">
+      <c r="H62" s="43">
         <v>28.947368421052602</v>
       </c>
-      <c r="I62" s="44">
+      <c r="I62" s="43">
         <v>39.482857142857199</v>
       </c>
-      <c r="J62" s="45">
+      <c r="J62" s="44">
         <v>38.076923076923102</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C63" s="41">
         <v>0.78479104477612005</v>
       </c>
-      <c r="D63" s="42">
+      <c r="D63" s="41">
         <v>0.95656410256409996</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="42">
         <v>0.27639495798319003</v>
       </c>
-      <c r="F63" s="44">
+      <c r="F63" s="43">
         <v>25.784090909090899</v>
       </c>
-      <c r="G63" s="44">
+      <c r="G63" s="43">
         <v>38.530327868852503</v>
       </c>
-      <c r="H63" s="44">
+      <c r="H63" s="43">
         <v>19.038709677419401</v>
       </c>
-      <c r="I63" s="44">
+      <c r="I63" s="43">
         <v>22.842268041237102</v>
       </c>
-      <c r="J63" s="45">
+      <c r="J63" s="44">
         <v>24.610416666666701</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="46"/>
-      <c r="B64" s="47" t="s">
+      <c r="A64" s="45"/>
+      <c r="B64" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="47">
         <v>0.74818181818181995</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="47">
         <v>0.97710714285713995</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="48">
         <v>0.39182142857142999</v>
       </c>
-      <c r="F64" s="50">
+      <c r="F64" s="49">
         <v>25.433333333333302</v>
       </c>
-      <c r="G64" s="50">
+      <c r="G64" s="49">
         <v>31.1620689655172</v>
       </c>
-      <c r="H64" s="50">
+      <c r="H64" s="49">
         <v>21.816666666666698</v>
       </c>
-      <c r="I64" s="50">
+      <c r="I64" s="49">
         <v>22.871428571428599</v>
       </c>
-      <c r="J64" s="51">
+      <c r="J64" s="50">
         <v>20.1619047619048</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="46"/>
-      <c r="B65" s="52" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="53">
+      <c r="C65" s="52">
         <v>0.67279310344828003</v>
       </c>
-      <c r="D65" s="53">
+      <c r="D65" s="52">
         <v>0.89121428571428996</v>
       </c>
-      <c r="E65" s="54">
+      <c r="E65" s="53">
         <v>0.43425925925926001</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F65" s="54">
         <v>42.757142857142902</v>
       </c>
-      <c r="G65" s="55">
+      <c r="G65" s="54">
         <v>57.262068965517301</v>
       </c>
-      <c r="H65" s="55">
+      <c r="H65" s="54">
         <v>25.908333333333299</v>
       </c>
-      <c r="I65" s="55">
+      <c r="I65" s="54">
         <v>37.671428571428599</v>
       </c>
-      <c r="J65" s="56">
+      <c r="J65" s="55">
         <v>42.122727272727303</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="46"/>
-      <c r="B66" s="57" t="s">
+      <c r="A66" s="45"/>
+      <c r="B66" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="58">
+      <c r="C66" s="57">
         <v>0.72128877005348002</v>
       </c>
-      <c r="D66" s="58">
+      <c r="D66" s="57">
         <v>0.93922424242423996</v>
       </c>
-      <c r="E66" s="59">
+      <c r="E66" s="58">
         <v>0.34415432098764998</v>
       </c>
-      <c r="F66" s="60">
+      <c r="F66" s="59">
         <v>29.573949579831901</v>
       </c>
-      <c r="G66" s="60">
+      <c r="G66" s="59">
         <v>43.805714285714302</v>
       </c>
-      <c r="H66" s="60">
+      <c r="H66" s="59">
         <v>21.912977099236699</v>
       </c>
-      <c r="I66" s="60">
+      <c r="I66" s="59">
         <v>27.2545454545455</v>
       </c>
-      <c r="J66" s="61">
+      <c r="J66" s="60">
         <v>28.500740740740699</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="46"/>
-      <c r="B67" s="52" t="s">
+      <c r="A67" s="45"/>
+      <c r="B67" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="53">
+      <c r="C67" s="52">
         <v>0.58404999999999996</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="52">
         <v>0.92552941176471004</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="53">
         <v>0.47866666666667002</v>
       </c>
-      <c r="F67" s="55">
+      <c r="F67" s="54">
         <v>38.1</v>
       </c>
-      <c r="G67" s="55">
+      <c r="G67" s="54">
         <v>56.164999999999999</v>
       </c>
-      <c r="H67" s="55">
+      <c r="H67" s="54">
         <v>26.9583333333333</v>
       </c>
-      <c r="I67" s="55">
+      <c r="I67" s="54">
         <v>39.033333333333303</v>
       </c>
-      <c r="J67" s="56">
+      <c r="J67" s="55">
         <v>35.763636363636401</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="46"/>
-      <c r="B68" s="52" t="s">
+      <c r="A68" s="45"/>
+      <c r="B68" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="53">
+      <c r="C68" s="52">
         <v>0.52875000000000005</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="52">
         <v>0.85152380952381002</v>
       </c>
-      <c r="E68" s="54">
+      <c r="E68" s="53">
         <v>0.55983333333332996</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="54">
         <v>44.25</v>
       </c>
-      <c r="G68" s="55">
+      <c r="G68" s="54">
         <v>65.164000000000001</v>
       </c>
-      <c r="H68" s="55">
+      <c r="H68" s="54">
         <v>33.637500000000003</v>
       </c>
-      <c r="I68" s="55">
+      <c r="I68" s="54">
         <v>42.38</v>
       </c>
-      <c r="J68" s="56">
+      <c r="J68" s="55">
         <v>39.035294117647098</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="46"/>
-      <c r="B69" s="52" t="s">
+      <c r="A69" s="45"/>
+      <c r="B69" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="53">
+      <c r="C69" s="52">
         <v>0.51383333333333003</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="52">
         <v>0.92233333333333001</v>
       </c>
-      <c r="E69" s="54">
+      <c r="E69" s="53">
         <v>0.503</v>
       </c>
-      <c r="F69" s="55">
+      <c r="F69" s="54">
         <v>38.575000000000003</v>
       </c>
-      <c r="G69" s="55">
+      <c r="G69" s="54">
         <v>56.72</v>
       </c>
-      <c r="H69" s="55">
+      <c r="H69" s="54">
         <v>29</v>
       </c>
-      <c r="I69" s="55">
+      <c r="I69" s="54">
         <v>40.024999999999999</v>
       </c>
-      <c r="J69" s="56">
+      <c r="J69" s="55">
         <v>25.14</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="46"/>
-      <c r="B70" s="52" t="s">
+      <c r="A70" s="45"/>
+      <c r="B70" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="53">
+      <c r="C70" s="52">
         <v>0.53536363636364004</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="52">
         <v>0.88719999999999999</v>
       </c>
-      <c r="E70" s="54">
+      <c r="E70" s="53">
         <v>0.56410000000000005</v>
       </c>
-      <c r="F70" s="55">
+      <c r="F70" s="54">
         <v>41.3</v>
       </c>
-      <c r="G70" s="55">
+      <c r="G70" s="54">
         <v>47.51</v>
       </c>
-      <c r="H70" s="55">
+      <c r="H70" s="54">
         <v>27.9</v>
       </c>
-      <c r="I70" s="55">
+      <c r="I70" s="54">
         <v>48.85</v>
       </c>
-      <c r="J70" s="56">
+      <c r="J70" s="55">
         <v>36.414285714285697</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="46"/>
-      <c r="B71" s="52" t="s">
+      <c r="A71" s="45"/>
+      <c r="B71" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="53">
+      <c r="C71" s="52">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="52">
         <v>0.85521428571429003</v>
       </c>
-      <c r="E71" s="54">
+      <c r="E71" s="53">
         <v>0.59199999999999997</v>
       </c>
-      <c r="F71" s="55">
+      <c r="F71" s="54">
         <v>43.618181818181803</v>
       </c>
-      <c r="G71" s="55">
+      <c r="G71" s="54">
         <v>59.4</v>
       </c>
-      <c r="H71" s="55">
+      <c r="H71" s="54">
         <v>35.507692307692302</v>
       </c>
-      <c r="I71" s="55">
+      <c r="I71" s="54">
         <v>40.2545454545455</v>
       </c>
-      <c r="J71" s="56">
+      <c r="J71" s="55">
         <v>36.207692307692298</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="46"/>
-      <c r="B72" s="52" t="s">
+      <c r="A72" s="45"/>
+      <c r="B72" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="53">
+      <c r="C72" s="52">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D72" s="53">
+      <c r="D72" s="52">
         <v>0.86780000000000002</v>
       </c>
-      <c r="E72" s="54">
+      <c r="E72" s="53">
         <v>0.52875000000000005</v>
       </c>
-      <c r="F72" s="55">
+      <c r="F72" s="54">
         <v>36.733333333333299</v>
       </c>
-      <c r="G72" s="55">
+      <c r="G72" s="54">
         <v>60.1</v>
       </c>
-      <c r="H72" s="55">
+      <c r="H72" s="54">
         <v>31.3333333333333</v>
       </c>
-      <c r="I72" s="55">
+      <c r="I72" s="54">
         <v>45.866666666666703</v>
       </c>
-      <c r="J72" s="56">
+      <c r="J72" s="55">
         <v>21.225000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="46"/>
-      <c r="B73" s="52" t="s">
+      <c r="A73" s="45"/>
+      <c r="B73" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="52">
         <v>0.59962499999999996</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="52">
         <v>0.95353333333333001</v>
       </c>
-      <c r="E73" s="54">
+      <c r="E73" s="53">
         <v>0.51084615384614995</v>
       </c>
-      <c r="F73" s="55">
+      <c r="F73" s="54">
         <v>35.36</v>
       </c>
-      <c r="G73" s="55">
+      <c r="G73" s="54">
         <v>48.618749999999999</v>
       </c>
-      <c r="H73" s="55">
+      <c r="H73" s="54">
         <v>23.7</v>
       </c>
-      <c r="I73" s="55">
+      <c r="I73" s="54">
         <v>31.35</v>
       </c>
-      <c r="J73" s="56">
+      <c r="J73" s="55">
         <v>39.133333333333297</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="46"/>
-      <c r="B74" s="52" t="s">
+      <c r="A74" s="45"/>
+      <c r="B74" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="53">
+      <c r="C74" s="52">
         <v>0.68879999999999997</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D74" s="52">
         <v>0.88660000000000005</v>
       </c>
-      <c r="E74" s="54">
+      <c r="E74" s="53">
         <v>0.41299999999999998</v>
       </c>
-      <c r="F74" s="55">
+      <c r="F74" s="54">
         <v>49.2</v>
       </c>
-      <c r="G74" s="55">
+      <c r="G74" s="54">
         <v>72.42</v>
       </c>
-      <c r="H74" s="55">
+      <c r="H74" s="54">
         <v>17.55</v>
       </c>
-      <c r="I74" s="55">
+      <c r="I74" s="54">
         <v>38</v>
       </c>
-      <c r="J74" s="56">
+      <c r="J74" s="55">
         <v>56.4</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="46"/>
-      <c r="B75" s="57" t="s">
+      <c r="A75" s="45"/>
+      <c r="B75" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="57">
         <v>0.5665</v>
       </c>
-      <c r="D75" s="58">
+      <c r="D75" s="57">
         <v>0.92374999999999996</v>
       </c>
-      <c r="E75" s="59">
+      <c r="E75" s="58">
         <v>0.49825000000000003</v>
       </c>
-      <c r="F75" s="60">
+      <c r="F75" s="59">
         <v>24.3</v>
       </c>
-      <c r="G75" s="60">
+      <c r="G75" s="59">
         <v>42.6666666666667</v>
       </c>
-      <c r="H75" s="60">
+      <c r="H75" s="59">
         <v>19.14</v>
       </c>
-      <c r="I75" s="60">
+      <c r="I75" s="59">
         <v>15.3</v>
       </c>
-      <c r="J75" s="61">
+      <c r="J75" s="60">
         <v>32.9</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="46"/>
-      <c r="B76" s="52" t="s">
+      <c r="A76" s="45"/>
+      <c r="B76" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="53">
+      <c r="C76" s="52">
         <v>0.72929999999999995</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="52">
         <v>0.96930000000000005</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="53">
         <v>0.35489999999999999</v>
       </c>
-      <c r="F76" s="55">
+      <c r="F76" s="54">
         <v>35.037500000000001</v>
       </c>
-      <c r="G76" s="55">
+      <c r="G76" s="54">
         <v>48.83</v>
       </c>
-      <c r="H76" s="55">
+      <c r="H76" s="54">
         <v>22.85</v>
       </c>
-      <c r="I76" s="55">
+      <c r="I76" s="54">
         <v>32.049999999999997</v>
       </c>
-      <c r="J76" s="56">
+      <c r="J76" s="55">
         <v>41.262500000000003</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="46"/>
-      <c r="B77" s="52" t="s">
+      <c r="A77" s="45"/>
+      <c r="B77" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="53">
+      <c r="C77" s="52">
         <v>0.76316666666666999</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="52">
         <v>0.97866666666667002</v>
       </c>
-      <c r="E77" s="54">
+      <c r="E77" s="53">
         <v>0.39316666666666999</v>
       </c>
-      <c r="F77" s="55">
+      <c r="F77" s="54">
         <v>25.262499999999999</v>
       </c>
-      <c r="G77" s="55">
+      <c r="G77" s="54">
         <v>31.554545454545501</v>
       </c>
-      <c r="H77" s="55">
+      <c r="H77" s="54">
         <v>17.912500000000001</v>
       </c>
-      <c r="I77" s="55">
+      <c r="I77" s="54">
         <v>26.77</v>
       </c>
-      <c r="J77" s="56">
+      <c r="J77" s="55">
         <v>17.61</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="46"/>
-      <c r="B78" s="52" t="s">
+      <c r="A78" s="45"/>
+      <c r="B78" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="53">
+      <c r="C78" s="52">
         <v>0.89685185185185001</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D78" s="52">
         <v>0.98707407407407</v>
       </c>
-      <c r="E78" s="54">
+      <c r="E78" s="53">
         <v>0.10677777777778</v>
       </c>
-      <c r="F78" s="55">
+      <c r="F78" s="54">
         <v>16.669230769230801</v>
       </c>
-      <c r="G78" s="55">
+      <c r="G78" s="54">
         <v>24.9185185185185</v>
       </c>
-      <c r="H78" s="55">
+      <c r="H78" s="54">
         <v>11.9884615384615</v>
       </c>
-      <c r="I78" s="55">
+      <c r="I78" s="54">
         <v>10.7</v>
       </c>
-      <c r="J78" s="56">
+      <c r="J78" s="55">
         <v>17.3037037037037</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="46"/>
-      <c r="B79" s="57" t="s">
+      <c r="A79" s="45"/>
+      <c r="B79" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="58">
+      <c r="C79" s="57">
         <v>0.90110526315788997</v>
       </c>
-      <c r="D79" s="58">
+      <c r="D79" s="57">
         <v>0.98028947368421004</v>
       </c>
-      <c r="E79" s="59">
+      <c r="E79" s="58">
         <v>0.12189473684211</v>
       </c>
-      <c r="F79" s="60">
+      <c r="F79" s="59">
         <v>17.54</v>
       </c>
-      <c r="G79" s="60">
+      <c r="G79" s="59">
         <v>25.678947368421099</v>
       </c>
-      <c r="H79" s="60">
+      <c r="H79" s="59">
         <v>12.911428571428599</v>
       </c>
-      <c r="I79" s="60">
+      <c r="I79" s="59">
         <v>13.821621621621601</v>
       </c>
-      <c r="J79" s="61">
+      <c r="J79" s="60">
         <v>17.1605263157895</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="46"/>
-      <c r="B80" s="52" t="s">
+      <c r="A80" s="45"/>
+      <c r="B80" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="53">
-        <v>0.60055555555555995</v>
-      </c>
-      <c r="D80" s="53">
-        <v>0.88637500000000002</v>
-      </c>
-      <c r="E80" s="54">
-        <v>0.52228571428571002</v>
-      </c>
-      <c r="F80" s="55">
+      <c r="C80" s="52">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D80" s="52">
+        <v>0.89611111111110997</v>
+      </c>
+      <c r="E80" s="53">
+        <v>0.50662499999999999</v>
+      </c>
+      <c r="F80" s="54">
         <v>43.8333333333333</v>
       </c>
-      <c r="G80" s="55">
-        <v>58.2</v>
-      </c>
-      <c r="H80" s="55">
-        <v>31.6</v>
-      </c>
-      <c r="I80" s="55">
+      <c r="G80" s="54">
+        <v>56.06</v>
+      </c>
+      <c r="H80" s="54">
+        <v>27.983333333333299</v>
+      </c>
+      <c r="I80" s="54">
         <v>47.5</v>
       </c>
-      <c r="J80" s="56">
+      <c r="J80" s="55">
         <v>46.4166666666667</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="46"/>
-      <c r="B81" s="52" t="s">
+      <c r="A81" s="45"/>
+      <c r="B81" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="53">
-        <v>0.75814999999999999</v>
-      </c>
-      <c r="D81" s="53">
-        <v>0.93068421052632</v>
-      </c>
-      <c r="E81" s="54">
-        <v>0.34</v>
-      </c>
-      <c r="F81" s="55">
+      <c r="C81" s="52">
+        <v>0.75318181818181995</v>
+      </c>
+      <c r="D81" s="52">
+        <v>0.93025000000000002</v>
+      </c>
+      <c r="E81" s="53">
+        <v>0.35285</v>
+      </c>
+      <c r="F81" s="54">
         <v>35.766666666666701</v>
       </c>
-      <c r="G81" s="55">
-        <v>56.715789473684197</v>
-      </c>
-      <c r="H81" s="55">
+      <c r="G81" s="54">
+        <v>58.280952380952399</v>
+      </c>
+      <c r="H81" s="54">
         <v>26.18</v>
       </c>
-      <c r="I81" s="55">
+      <c r="I81" s="54">
         <v>31.8</v>
       </c>
-      <c r="J81" s="56">
+      <c r="J81" s="55">
         <v>34.700000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="46"/>
-      <c r="B82" s="52" t="s">
+      <c r="A82" s="45"/>
+      <c r="B82" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="53">
-        <v>0.55259090909091002</v>
-      </c>
-      <c r="D82" s="53">
-        <v>0.89907499999999996</v>
-      </c>
-      <c r="E82" s="54">
-        <v>0.53349999999999997</v>
-      </c>
-      <c r="F82" s="55">
+      <c r="C82" s="52">
+        <v>0.54997674418605003</v>
+      </c>
+      <c r="D82" s="52">
+        <v>0.89715384615384997</v>
+      </c>
+      <c r="E82" s="53">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="F82" s="54">
         <v>39.957142857142898</v>
       </c>
-      <c r="G82" s="55">
-        <v>55.488636363636402</v>
-      </c>
-      <c r="H82" s="55">
-        <v>28.5454545454546</v>
-      </c>
-      <c r="I82" s="55">
+      <c r="G82" s="54">
+        <v>55.923255813953503</v>
+      </c>
+      <c r="H82" s="54">
+        <v>29.128125000000001</v>
+      </c>
+      <c r="I82" s="54">
         <v>38.448387096774198</v>
       </c>
-      <c r="J82" s="56">
+      <c r="J82" s="55">
         <v>36.560606060606098</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="46"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="45"/>
+      <c r="B83" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="58">
-        <v>0.78946491228070004</v>
-      </c>
-      <c r="D83" s="58">
-        <v>0.96158163265305996</v>
-      </c>
-      <c r="E83" s="59">
-        <v>0.26505940594059002</v>
-      </c>
-      <c r="F83" s="60">
+      <c r="C83" s="57">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D83" s="57">
+        <v>0.96198969072164997</v>
+      </c>
+      <c r="E83" s="58">
+        <v>0.26094949494948999</v>
+      </c>
+      <c r="F83" s="59">
         <v>24.646835443038</v>
       </c>
-      <c r="G83" s="60">
-        <v>35.175728155339797</v>
-      </c>
-      <c r="H83" s="60">
+      <c r="G83" s="59">
+        <v>34.423762376237597</v>
+      </c>
+      <c r="H83" s="59">
         <v>18.178313253012</v>
       </c>
-      <c r="I83" s="60">
+      <c r="I83" s="59">
         <v>21.4559523809524</v>
       </c>
-      <c r="J83" s="61">
+      <c r="J83" s="60">
         <v>23.304705882352899</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="46"/>
-      <c r="B84" s="52" t="s">
+      <c r="A84" s="45"/>
+      <c r="B84" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="53">
+      <c r="C84" s="52">
         <v>0.46949999999999997</v>
       </c>
-      <c r="D84" s="53">
+      <c r="D84" s="52">
         <v>0.86385000000000001</v>
       </c>
-      <c r="E84" s="54">
+      <c r="E84" s="53">
         <v>0.58729411764705997</v>
       </c>
-      <c r="F84" s="55">
+      <c r="F84" s="54">
         <v>41.566666666666698</v>
       </c>
-      <c r="G84" s="55">
+      <c r="G84" s="54">
         <v>58.777272727272702</v>
       </c>
-      <c r="H84" s="55">
+      <c r="H84" s="54">
         <v>33.864705882353</v>
       </c>
-      <c r="I84" s="55">
+      <c r="I84" s="54">
         <v>39.200000000000003</v>
       </c>
-      <c r="J84" s="56">
+      <c r="J84" s="55">
         <v>36.905555555555601</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="46"/>
-      <c r="B85" s="52" t="s">
+      <c r="A85" s="45"/>
+      <c r="B85" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="53">
+      <c r="C85" s="52">
         <v>0.51600000000000001</v>
       </c>
-      <c r="D85" s="53">
+      <c r="D85" s="52">
         <v>0.65900000000000003</v>
       </c>
-      <c r="E85" s="54">
+      <c r="E85" s="53">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F85" s="55">
+      <c r="F85" s="54">
         <v>58.4</v>
       </c>
-      <c r="G85" s="55">
+      <c r="G85" s="54">
         <v>85.7</v>
       </c>
-      <c r="H85" s="55">
+      <c r="H85" s="54">
         <v>38.75</v>
       </c>
-      <c r="I85" s="55">
+      <c r="I85" s="54">
         <v>44.4</v>
       </c>
-      <c r="J85" s="56">
+      <c r="J85" s="55">
         <v>56.95</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="46"/>
-      <c r="B86" s="52" t="s">
+      <c r="A86" s="45"/>
+      <c r="B86" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="53">
+      <c r="C86" s="52">
         <v>0.59482608695651995</v>
       </c>
-      <c r="D86" s="53">
+      <c r="D86" s="52">
         <v>0.90536363636364003</v>
       </c>
-      <c r="E86" s="54">
+      <c r="E86" s="53">
         <v>0.52215</v>
       </c>
-      <c r="F86" s="55">
+      <c r="F86" s="54">
         <v>41.323076923076897</v>
       </c>
-      <c r="G86" s="55">
+      <c r="G86" s="54">
         <v>57.291304347826099</v>
       </c>
-      <c r="H86" s="55">
+      <c r="H86" s="54">
         <v>24.8117647058824</v>
       </c>
-      <c r="I86" s="55">
+      <c r="I86" s="54">
         <v>42.9</v>
       </c>
-      <c r="J86" s="56">
+      <c r="J86" s="55">
         <v>40.368749999999999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="46"/>
-      <c r="B87" s="52" t="s">
+      <c r="A87" s="45"/>
+      <c r="B87" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="53">
+      <c r="C87" s="52">
         <v>0.65803225806452004</v>
       </c>
-      <c r="D87" s="53">
+      <c r="D87" s="52">
         <v>0.93344000000000005</v>
       </c>
-      <c r="E87" s="54">
+      <c r="E87" s="53">
         <v>0.43180769230769001</v>
       </c>
-      <c r="F87" s="55">
+      <c r="F87" s="54">
         <v>34.504761904761899</v>
       </c>
-      <c r="G87" s="55">
+      <c r="G87" s="54">
         <v>44.303571428571402</v>
       </c>
-      <c r="H87" s="55">
+      <c r="H87" s="54">
         <v>25.164000000000001</v>
       </c>
-      <c r="I87" s="55">
+      <c r="I87" s="54">
         <v>32.485714285714302</v>
       </c>
-      <c r="J87" s="56">
+      <c r="J87" s="55">
         <v>32.686363636363602</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="46"/>
-      <c r="B88" s="52" t="s">
+      <c r="A88" s="45"/>
+      <c r="B88" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="53">
+      <c r="C88" s="52">
         <v>0.70185714285713996</v>
       </c>
-      <c r="D88" s="53">
+      <c r="D88" s="52">
         <v>0.97650000000000003</v>
       </c>
-      <c r="E88" s="54">
+      <c r="E88" s="53">
         <v>0.40583333333332999</v>
       </c>
-      <c r="F88" s="55">
+      <c r="F88" s="54">
         <v>29.866666666666699</v>
       </c>
-      <c r="G88" s="55">
+      <c r="G88" s="54">
         <v>44.828571428571401</v>
       </c>
-      <c r="H88" s="55">
+      <c r="H88" s="54">
         <v>25.625</v>
       </c>
-      <c r="I88" s="55">
+      <c r="I88" s="54">
         <v>30.08</v>
       </c>
-      <c r="J88" s="56">
+      <c r="J88" s="55">
         <v>34.96</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="46"/>
-      <c r="B89" s="52" t="s">
+      <c r="A89" s="45"/>
+      <c r="B89" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="53">
+      <c r="C89" s="52">
         <v>0.76788888888888995</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="52">
         <v>0.96432499999999999</v>
       </c>
-      <c r="E89" s="54">
+      <c r="E89" s="53">
         <v>0.31969999999999998</v>
       </c>
-      <c r="F89" s="55">
+      <c r="F89" s="54">
         <v>27.4607142857143</v>
       </c>
-      <c r="G89" s="55">
+      <c r="G89" s="54">
         <v>37.555</v>
       </c>
-      <c r="H89" s="55">
+      <c r="H89" s="54">
         <v>19.851724137931001</v>
       </c>
-      <c r="I89" s="55">
+      <c r="I89" s="54">
         <v>24.354838709677399</v>
       </c>
-      <c r="J89" s="56">
+      <c r="J89" s="55">
         <v>24.103225806451601</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="46"/>
-      <c r="B90" s="57" t="s">
+      <c r="A90" s="45"/>
+      <c r="B90" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="58">
+      <c r="C90" s="57">
         <v>0.88627272727272999</v>
       </c>
-      <c r="D90" s="58">
+      <c r="D90" s="57">
         <v>0.97964583333333</v>
       </c>
-      <c r="E90" s="59">
+      <c r="E90" s="58">
         <v>0.1319387755102</v>
       </c>
-      <c r="F90" s="60">
+      <c r="F90" s="59">
         <v>17.8027027027027</v>
       </c>
-      <c r="G90" s="60">
-        <v>33.296078431372599</v>
-      </c>
-      <c r="H90" s="60">
+      <c r="G90" s="59">
+        <v>33.2960784313725</v>
+      </c>
+      <c r="H90" s="59">
         <v>13.1972972972973</v>
       </c>
-      <c r="I90" s="60">
+      <c r="I90" s="59">
         <v>16.119047619047599</v>
       </c>
-      <c r="J90" s="61">
+      <c r="J90" s="60">
         <v>19.195</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="46"/>
-      <c r="B91" s="52" t="s">
+      <c r="A91" s="45"/>
+      <c r="B91" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="53">
+      <c r="C91" s="52">
         <v>0.4955</v>
       </c>
-      <c r="D91" s="53">
+      <c r="D91" s="52">
         <v>0.87882758620690005</v>
       </c>
-      <c r="E91" s="54">
+      <c r="E91" s="53">
         <v>0.57935999999999999</v>
       </c>
-      <c r="F91" s="55">
+      <c r="F91" s="54">
         <v>40.965000000000003</v>
       </c>
-      <c r="G91" s="55">
+      <c r="G91" s="54">
         <v>58.493749999999999</v>
       </c>
-      <c r="H91" s="55">
+      <c r="H91" s="54">
         <v>31.571999999999999</v>
       </c>
-      <c r="I91" s="55">
+      <c r="I91" s="54">
         <v>37.524999999999999</v>
       </c>
-      <c r="J91" s="56">
+      <c r="J91" s="55">
         <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="46"/>
-      <c r="B92" s="52" t="s">
+      <c r="A92" s="45"/>
+      <c r="B92" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="53">
+      <c r="C92" s="52">
         <v>0.58099999999999996</v>
       </c>
-      <c r="D92" s="53">
+      <c r="D92" s="52">
         <v>0.85260000000000002</v>
       </c>
-      <c r="E92" s="54">
+      <c r="E92" s="53">
         <v>0.54522222222222005</v>
       </c>
-      <c r="F92" s="55">
+      <c r="F92" s="54">
         <v>43.225000000000001</v>
       </c>
-      <c r="G92" s="55">
+      <c r="G92" s="54">
         <v>52.681818181818201</v>
       </c>
-      <c r="H92" s="55">
+      <c r="H92" s="54">
         <v>28.990909090909099</v>
       </c>
-      <c r="I92" s="55">
+      <c r="I92" s="54">
         <v>35.112499999999997</v>
       </c>
-      <c r="J92" s="56">
+      <c r="J92" s="55">
         <v>48.1875</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="46"/>
-      <c r="B93" s="52" t="s">
+      <c r="A93" s="45"/>
+      <c r="B93" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="53">
+      <c r="C93" s="52">
         <v>0.65400000000000003</v>
       </c>
-      <c r="D93" s="53">
+      <c r="D93" s="52">
         <v>0.93674999999999997</v>
       </c>
-      <c r="E93" s="54">
+      <c r="E93" s="53">
         <v>0.42699999999999999</v>
       </c>
-      <c r="F93" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="55">
+      <c r="F93" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="54">
         <v>47.866666666666703</v>
       </c>
-      <c r="H93" s="55">
+      <c r="H93" s="54">
         <v>17.3</v>
       </c>
-      <c r="I93" s="55">
+      <c r="I93" s="54">
         <v>19.2</v>
       </c>
-      <c r="J93" s="56">
+      <c r="J93" s="55">
         <v>40.700000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="46"/>
-      <c r="B94" s="52" t="s">
+      <c r="A94" s="45"/>
+      <c r="B94" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="53">
+      <c r="C94" s="52">
         <v>0.72493333333332999</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="52">
         <v>0.96356249999999999</v>
       </c>
-      <c r="E94" s="54">
+      <c r="E94" s="53">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F94" s="55">
+      <c r="F94" s="54">
         <v>26.66</v>
       </c>
-      <c r="G94" s="55">
+      <c r="G94" s="54">
         <v>37.865000000000002</v>
       </c>
-      <c r="H94" s="55">
+      <c r="H94" s="54">
         <v>28.7444444444445</v>
       </c>
-      <c r="I94" s="55">
+      <c r="I94" s="54">
         <v>16.98</v>
       </c>
-      <c r="J94" s="56">
+      <c r="J94" s="55">
         <v>34.18</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="46"/>
-      <c r="B95" s="52" t="s">
+      <c r="A95" s="45"/>
+      <c r="B95" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="53">
+      <c r="C95" s="52">
         <v>0.50149999999999995</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="52">
         <v>0.89662500000000001</v>
       </c>
-      <c r="E95" s="54">
+      <c r="E95" s="53">
         <v>0.56473333333332998</v>
       </c>
-      <c r="F95" s="55">
+      <c r="F95" s="54">
         <v>37.8363636363636</v>
       </c>
-      <c r="G95" s="55">
+      <c r="G95" s="54">
         <v>50.64</v>
       </c>
-      <c r="H95" s="55">
+      <c r="H95" s="54">
         <v>29.816666666666698</v>
       </c>
-      <c r="I95" s="55">
+      <c r="I95" s="54">
         <v>39.3333333333333</v>
       </c>
-      <c r="J95" s="56">
+      <c r="J95" s="55">
         <v>33.25</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="46"/>
-      <c r="B96" s="57" t="s">
+      <c r="A96" s="45"/>
+      <c r="B96" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="58">
+      <c r="C96" s="57">
         <v>0.70274999999999999</v>
       </c>
-      <c r="D96" s="58">
+      <c r="D96" s="57">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E96" s="59">
+      <c r="E96" s="58">
         <v>0.34986666666666999</v>
       </c>
-      <c r="F96" s="60">
+      <c r="F96" s="59">
         <v>27.9538461538462</v>
       </c>
-      <c r="G96" s="60">
+      <c r="G96" s="59">
         <v>36.912500000000001</v>
       </c>
-      <c r="H96" s="60">
+      <c r="H96" s="59">
         <v>21.6428571428571</v>
       </c>
-      <c r="I96" s="60">
+      <c r="I96" s="59">
         <v>28.276923076923101</v>
       </c>
-      <c r="J96" s="61">
+      <c r="J96" s="60">
         <v>23.435714285714301</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="46"/>
-      <c r="B97" s="52" t="s">
+      <c r="A97" s="45"/>
+      <c r="B97" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="53">
+      <c r="C97" s="52">
         <v>0.51280555555555996</v>
       </c>
-      <c r="D97" s="53">
+      <c r="D97" s="52">
         <v>0.88278124999999996</v>
       </c>
-      <c r="E97" s="54">
+      <c r="E97" s="53">
         <v>0.57285185185184995</v>
       </c>
-      <c r="F97" s="55">
+      <c r="F97" s="54">
         <v>42</v>
       </c>
-      <c r="G97" s="55">
+      <c r="G97" s="54">
         <v>58.586111111111101</v>
       </c>
-      <c r="H97" s="55">
+      <c r="H97" s="54">
         <v>32.342307692307699</v>
       </c>
-      <c r="I97" s="55">
+      <c r="I97" s="54">
         <v>42.595238095238102</v>
       </c>
-      <c r="J97" s="56">
+      <c r="J97" s="55">
         <v>37.376923076923099</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="46"/>
-      <c r="B98" s="52" t="s">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="45"/>
+      <c r="B98" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="53">
+      <c r="C98" s="57">
         <v>0.60844444444444001</v>
       </c>
-      <c r="D98" s="53">
+      <c r="D98" s="57">
         <v>0.85668750000000005</v>
       </c>
-      <c r="E98" s="54">
+      <c r="E98" s="58">
         <v>0.52576470588235003</v>
       </c>
-      <c r="F98" s="55">
+      <c r="F98" s="59">
         <v>41.592857142857099</v>
       </c>
-      <c r="G98" s="55">
+      <c r="G98" s="59">
         <v>56.711111111111101</v>
       </c>
-      <c r="H98" s="55">
+      <c r="H98" s="59">
         <v>29.34</v>
       </c>
-      <c r="I98" s="55">
+      <c r="I98" s="59">
         <v>31.233333333333299</v>
       </c>
-      <c r="J98" s="56">
+      <c r="J98" s="60">
         <v>41.973333333333301</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="46"/>
-      <c r="B99" s="57" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C99" s="58">
-        <v>0.49641666666667</v>
-      </c>
-      <c r="D99" s="58">
-        <v>0.80549999999999999</v>
-      </c>
-      <c r="E99" s="59">
-        <v>0.61554545454544995</v>
-      </c>
-      <c r="F99" s="60">
-        <v>48.3857142857143</v>
-      </c>
-      <c r="G99" s="60">
-        <v>68.066666666666706</v>
-      </c>
-      <c r="H99" s="60">
-        <v>33.65</v>
-      </c>
-      <c r="I99" s="60">
-        <v>41.228571428571399</v>
-      </c>
-      <c r="J99" s="61">
-        <v>45.344444444444399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="62"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="64"/>
-      <c r="I100" s="64"/>
-      <c r="J100" s="64"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="66"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="67"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="61"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="65" t="s">
+      <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="66"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="J103" s="67"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="65" t="s">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="62"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="61"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B104" s="66"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="67"/>
-      <c r="J104" s="67"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="65" t="s">
+      <c r="C107" s="61"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="61"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B105" s="66"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="66"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="67"/>
-      <c r="J106" s="67"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="66"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="67"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="68"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="2"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="67"/>
-      <c r="J112" s="67"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
+        <v>169</v>
+      </c>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
-    <hyperlink ref="B110" r:id="rId2"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B114" r:id="rId5"/>
+    <hyperlink ref="B107" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{9AB9DBB3-2757-4852-8A54-6D8311F436D8}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{36B2920A-4E36-43E9-8B34-E40DD64955AC}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6AC74A25-E557-4074-9257-1F2118D8DBC2}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{3BC79FF4-39D7-40D6-93D9-D3EAE6BA1F8C}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{B3FE3FD1-2E42-4EC8-8057-749FB55EDED4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EFBB3FB-EA82-4369-ABF5-3AAD1FB70694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C716D650-8AAF-4BCA-860D-C1210CF86BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{F5682C8A-7D2A-42A8-B5C5-DF1F44DAD12A}"/>
+    <workbookView xWindow="30510" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{777700CA-79E8-42CF-A982-C66359087BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -48,28 +48,28 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Pourcentage de grandes entreprises utilisant leur propre site Web, mesure la plus récente 2012-21</t>
-  </si>
-  <si>
-    <t>Pourcentage d'entreprises de taille moyenne utilisant leur propre site Web, mesure la plus récente 2012-21</t>
-  </si>
-  <si>
-    <t>Pourcentage de petites entreprises utilisant leur propre site Web, mesure la plus récente 2012-21</t>
-  </si>
-  <si>
-    <t>Pourcentage d'entreprises de toutes tailles utilisant leur propre site Web, mesure la plus récente 2012-21</t>
-  </si>
-  <si>
-    <t>Pourcentage de grandes entreprises utilisant le courrier électronique pour interagir avec leurs clients / fournisseurs, mesure la plus récente 2012-21</t>
-  </si>
-  <si>
-    <t>Pourcentage d'entreprises de taille moyenne utilisant le courrier électronique pour interagir avec leurs clients / fournisseurs, le plus récent mesure 2012-21</t>
-  </si>
-  <si>
-    <t>Pourcentage de petites entreprises utilisant le courrier électronique pour interagir avec les clients / fournisseurs, mesure la plus récente 2012-21</t>
-  </si>
-  <si>
-    <t>Pourcentage d'entreprises de toutes tailles utilisant le courrier électronique pour interagir avec les clients / fournisseurs, le plus récent mesure 2012-21</t>
+    <t>Pourcentage de grandes entreprises utilisant leur propre site Web, mesure la plus récente 2013-22</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises de taille moyenne utilisant leur propre site Web, mesure la plus récente 2013-22</t>
+  </si>
+  <si>
+    <t>Pourcentage de petites entreprises utilisant leur propre site Web, mesure la plus récente 2013-22</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises de toutes tailles utilisant leur propre site Web, mesure la plus récente 2013-22</t>
+  </si>
+  <si>
+    <t>Pourcentage de grandes entreprises utilisant le courrier électronique pour interagir avec leurs clients / fournisseurs, mesure la plus récente 2013-22</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises de taille moyenne utilisant le courrier électronique pour interagir avec leurs clients / fournisseurs, le plus récent mesure 2013-22</t>
+  </si>
+  <si>
+    <t>Pourcentage de petites entreprises utilisant le courrier électronique pour interagir avec les clients / fournisseurs, mesure la plus récente 2013-22</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises de toutes tailles utilisant le courrier électronique pour interagir avec les clients / fournisseurs, le plus récent mesure 2013-22</t>
   </si>
   <si>
     <t>Exportations totales de services TIC, millions de dollars US, 2019</t>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE01907C-8034-45E9-B7BB-324DC6F6BE73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F2B3EF-FD30-4A16-A036-407D6819150F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1959,7 +1959,7 @@
         <v>37.285714285714299</v>
       </c>
       <c r="G13" s="24">
-        <v>88.133333333333397</v>
+        <v>88.133333333333297</v>
       </c>
       <c r="H13" s="25">
         <v>81.466666666666697</v>
@@ -4408,7 +4408,7 @@
         <v>133993.53652170001</v>
       </c>
       <c r="L65" s="44">
-        <v>7.1313346413333303</v>
+        <v>7.1313346413333401</v>
       </c>
       <c r="M65" s="44">
         <v>365355.84289600002</v>
@@ -5137,7 +5137,7 @@
         <v>22.641033643588202</v>
       </c>
       <c r="O81" s="45">
-        <v>58.217647058823601</v>
+        <v>58.217647058823502</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -6182,11 +6182,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F26AA48F-0713-4923-97FC-ABEA81982911}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{552A03BD-B907-4201-9520-B70CE18EBEF9}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{E45F7F31-7BE1-4741-862F-49F2CE270BB9}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{D7F0DC30-0A95-4A98-B489-E2B0C80FD5DF}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{48567E75-F6C5-49E1-8A3D-08C0F90E2021}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A79A4D61-5693-49C9-BD47-DF2B1A9FCFD8}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{712F35BC-F90D-4D2D-91F3-FD8C96469670}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1B38DBB0-4674-4F8D-8D2A-FA067B5CFEA5}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{9D75E886-3F7B-4D94-A82A-F8695204CF63}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{6A5493D1-7F83-49AB-B80A-1544E2383354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C716D650-8AAF-4BCA-860D-C1210CF86BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CDDEC0C-2FD4-4089-BAC9-B579DE5B297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{777700CA-79E8-42CF-A982-C66359087BD0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C328E810-4A4B-46BD-B772-B8F8FCBFC241}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$G$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -276,7 +276,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -354,7 +354,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -408,7 +408,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F2B3EF-FD30-4A16-A036-407D6819150F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A141F1-790E-4F8E-97EC-61645AB807B0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2930,46 +2930,46 @@
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="28">
         <v>76</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="29">
         <v>61.9</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="29">
         <v>19.600000000000001</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="30">
         <v>25.6</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="28">
         <v>82.1</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="29">
         <v>80.599999999999994</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="29">
         <v>46.6</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="30">
         <v>51.2</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="28">
         <v>0.35</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="29">
         <v>0.33451208999999998</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="29">
         <v>100.11</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="30">
         <v>95.68001529</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4011,46 +4011,46 @@
       <c r="A57" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>69.8</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>48.2</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>14.8</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="21">
         <v>22.3</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="19">
         <v>78.599999999999994</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="20">
         <v>35.5</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="20">
         <v>18.899999999999999</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="21">
         <v>23.5</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K57" s="19">
         <v>211.875</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="20">
         <v>4.2810173980000004</v>
       </c>
-      <c r="M57" s="29">
+      <c r="M57" s="20">
         <v>1068.8800000000001</v>
       </c>
-      <c r="N57" s="30">
+      <c r="N57" s="21">
         <v>21.597139240000001</v>
       </c>
-      <c r="O57" s="30">
+      <c r="O57" s="21">
         <v>46.2</v>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
         <v>48.6666666666667</v>
       </c>
       <c r="E68" s="44">
-        <v>25.4444444444445</v>
+        <v>25.4444444444444</v>
       </c>
       <c r="F68" s="45">
         <v>35.711111111111101</v>
@@ -4534,7 +4534,7 @@
         <v>77.452941176470603</v>
       </c>
       <c r="I68" s="44">
-        <v>53.941176470588204</v>
+        <v>53.941176470588303</v>
       </c>
       <c r="J68" s="45">
         <v>62.688235294117703</v>
@@ -4561,43 +4561,43 @@
         <v>138</v>
       </c>
       <c r="C69" s="43">
-        <v>69.8</v>
+        <v>64.616666666666703</v>
       </c>
       <c r="D69" s="44">
-        <v>46.58</v>
+        <v>45.35</v>
       </c>
       <c r="E69" s="44">
-        <v>20.98</v>
+        <v>19.5833333333333</v>
       </c>
       <c r="F69" s="45">
-        <v>28.06</v>
+        <v>26.216666666666701</v>
       </c>
       <c r="G69" s="43">
-        <v>85.96</v>
+        <v>84.4166666666667</v>
       </c>
       <c r="H69" s="44">
-        <v>70.08</v>
+        <v>69.866666666666703</v>
       </c>
       <c r="I69" s="44">
-        <v>43.94</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="J69" s="45">
-        <v>52.08</v>
+        <v>48.633333333333297</v>
       </c>
       <c r="K69" s="43">
-        <v>699.79200000000003</v>
+        <v>701.91200000000003</v>
       </c>
       <c r="L69" s="44">
-        <v>3.0426021714</v>
+        <v>2.7845174928333298</v>
       </c>
       <c r="M69" s="44">
-        <v>2129.1219999999998</v>
+        <v>2135.1089999999999</v>
       </c>
       <c r="N69" s="45">
-        <v>28.9695663778</v>
+        <v>24.844539699666701</v>
       </c>
       <c r="O69" s="45">
-        <v>31.42</v>
+        <v>28.316666666666698</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -4708,7 +4708,7 @@
         <v>38.716666666666697</v>
       </c>
       <c r="G72" s="43">
-        <v>83.183333333333394</v>
+        <v>83.183333333333294</v>
       </c>
       <c r="H72" s="44">
         <v>77.866666666666703</v>
@@ -4957,7 +4957,7 @@
         <v>34.171868289090902</v>
       </c>
       <c r="O77" s="45">
-        <v>52.48</v>
+        <v>52.977777777777803</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -5056,43 +5056,43 @@
         <v>147</v>
       </c>
       <c r="C80" s="51">
-        <v>67</v>
+        <v>69.066666666666706</v>
       </c>
       <c r="D80" s="52">
-        <v>37.766666666666701</v>
+        <v>42.3333333333333</v>
       </c>
       <c r="E80" s="52">
-        <v>15.2</v>
+        <v>16.8</v>
       </c>
       <c r="F80" s="53">
-        <v>24.133333333333301</v>
+        <v>25.233333333333299</v>
       </c>
       <c r="G80" s="51">
-        <v>85.766666666666694</v>
+        <v>86.933333333333394</v>
       </c>
       <c r="H80" s="52">
-        <v>60.6666666666667</v>
+        <v>75.7</v>
       </c>
       <c r="I80" s="52">
-        <v>36.266666666666701</v>
+        <v>45.5</v>
       </c>
       <c r="J80" s="53">
-        <v>43.566666666666698</v>
+        <v>52.8</v>
       </c>
       <c r="K80" s="51">
-        <v>343.64499999999998</v>
+        <v>132.12</v>
       </c>
       <c r="L80" s="52">
-        <v>3.7371279652</v>
+        <v>2.9478269036000002</v>
       </c>
       <c r="M80" s="52">
-        <v>3398.7710000000002</v>
+        <v>2430.0010000000002</v>
       </c>
       <c r="N80" s="53">
-        <v>24.358750754999999</v>
+        <v>39.175325964999999</v>
       </c>
       <c r="O80" s="53">
-        <v>30.887499999999999</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -5146,43 +5146,43 @@
         <v>149</v>
       </c>
       <c r="C82" s="43">
-        <v>69.296875</v>
+        <v>69.103125000000006</v>
       </c>
       <c r="D82" s="44">
-        <v>47.771875000000001</v>
+        <v>47.34375</v>
       </c>
       <c r="E82" s="44">
-        <v>25.184374999999999</v>
+        <v>25.034375000000001</v>
       </c>
       <c r="F82" s="45">
-        <v>34.028125000000003</v>
+        <v>33.924999999999997</v>
       </c>
       <c r="G82" s="43">
-        <v>89.4166666666667</v>
+        <v>89.3</v>
       </c>
       <c r="H82" s="44">
-        <v>77.956666666666706</v>
+        <v>76.453333333333404</v>
       </c>
       <c r="I82" s="44">
-        <v>53.773333333333397</v>
+        <v>52.85</v>
       </c>
       <c r="J82" s="45">
-        <v>62.27</v>
+        <v>61.3466666666667</v>
       </c>
       <c r="K82" s="43">
-        <v>5022.0628106000004</v>
+        <v>5233.5878106</v>
       </c>
       <c r="L82" s="44">
-        <v>8.4375454278055599</v>
+        <v>8.54717057525</v>
       </c>
       <c r="M82" s="44">
-        <v>24217.284678700002</v>
+        <v>25186.054678699998</v>
       </c>
       <c r="N82" s="45">
-        <v>27.0979690593784</v>
+        <v>25.095729166135101</v>
       </c>
       <c r="O82" s="45">
-        <v>29.516666666666701</v>
+        <v>29.967567567567599</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5236,43 +5236,43 @@
         <v>151</v>
       </c>
       <c r="C84" s="51">
-        <v>63.605882352941201</v>
+        <v>63.461111111111101</v>
       </c>
       <c r="D84" s="52">
-        <v>41.241176470588201</v>
+        <v>40.677777777777798</v>
       </c>
       <c r="E84" s="52">
-        <v>20.382352941176499</v>
+        <v>20.011111111111099</v>
       </c>
       <c r="F84" s="53">
-        <v>28.105882352941201</v>
+        <v>27.672222222222199</v>
       </c>
       <c r="G84" s="51">
-        <v>85.653333333333407</v>
+        <v>86.293750000000003</v>
       </c>
       <c r="H84" s="52">
-        <v>73.546666666666695</v>
+        <v>72.53125</v>
       </c>
       <c r="I84" s="52">
-        <v>47.706666666666699</v>
+        <v>47.762500000000003</v>
       </c>
       <c r="J84" s="53">
-        <v>56.026666666666699</v>
+        <v>55.84375</v>
       </c>
       <c r="K84" s="51">
-        <v>796.76090299999998</v>
+        <v>815.27690299999995</v>
       </c>
       <c r="L84" s="52">
-        <v>12.203208196812501</v>
+        <v>11.593017487588201</v>
       </c>
       <c r="M84" s="52">
-        <v>2004.7982407</v>
+        <v>2119.1882406999998</v>
       </c>
       <c r="N84" s="53">
-        <v>32.4191310514706</v>
+        <v>31.246143113611101</v>
       </c>
       <c r="O84" s="53">
-        <v>18.352941176470601</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -5326,43 +5326,43 @@
         <v>153</v>
       </c>
       <c r="C86" s="43">
-        <v>72.811764705882396</v>
+        <v>73.55</v>
       </c>
       <c r="D86" s="44">
-        <v>51.835294117647102</v>
+        <v>53.131250000000001</v>
       </c>
       <c r="E86" s="44">
-        <v>27.829411764705899</v>
+        <v>28.712499999999999</v>
       </c>
       <c r="F86" s="45">
-        <v>37.888235294117699</v>
+        <v>38.987499999999997</v>
       </c>
       <c r="G86" s="43">
-        <v>91.470588235294201</v>
+        <v>91.193749999999994</v>
       </c>
       <c r="H86" s="44">
-        <v>77.900000000000006</v>
+        <v>79.1875</v>
       </c>
       <c r="I86" s="44">
-        <v>54.864705882353</v>
+        <v>55.256250000000001</v>
       </c>
       <c r="J86" s="45">
-        <v>63.547058823529397</v>
+        <v>64.2</v>
       </c>
       <c r="K86" s="43">
-        <v>4383.1659075999996</v>
+        <v>4364.6499076</v>
       </c>
       <c r="L86" s="44">
-        <v>5.5706391909999997</v>
+        <v>5.75767284355</v>
       </c>
       <c r="M86" s="44">
-        <v>20435.402438000001</v>
+        <v>20321.012438000002</v>
       </c>
       <c r="N86" s="45">
-        <v>22.9257965386</v>
+        <v>23.537399084315801</v>
       </c>
       <c r="O86" s="45">
-        <v>33.928571428571402</v>
+        <v>34.125</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
@@ -5371,43 +5371,43 @@
         <v>154</v>
       </c>
       <c r="C87" s="43">
-        <v>77.525000000000006</v>
+        <v>78.661538461538498</v>
       </c>
       <c r="D87" s="44">
-        <v>51.433333333333302</v>
+        <v>53.515384615384598</v>
       </c>
       <c r="E87" s="44">
-        <v>28.241666666666699</v>
+        <v>30.207692307692302</v>
       </c>
       <c r="F87" s="45">
-        <v>38.883333333333297</v>
+        <v>40.815384615384602</v>
       </c>
       <c r="G87" s="43">
-        <v>93.5416666666667</v>
+        <v>93.915384615384596</v>
       </c>
       <c r="H87" s="44">
-        <v>76.825000000000003</v>
+        <v>77.615384615384599</v>
       </c>
       <c r="I87" s="44">
-        <v>55.3</v>
+        <v>57.069230769230799</v>
       </c>
       <c r="J87" s="45">
-        <v>65.2083333333334</v>
+        <v>66.5230769230769</v>
       </c>
       <c r="K87" s="43">
-        <v>81089.109931700004</v>
+        <v>81611.359931700004</v>
       </c>
       <c r="L87" s="44">
-        <v>7.5881654863461501</v>
+        <v>7.5778063753846201</v>
       </c>
       <c r="M87" s="44">
-        <v>200205.47909050001</v>
+        <v>203608.65209049999</v>
       </c>
       <c r="N87" s="45">
-        <v>21.1765198486552</v>
+        <v>21.662767979689701</v>
       </c>
       <c r="O87" s="45">
-        <v>42.975000000000001</v>
+        <v>43.466666666666697</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
@@ -5461,43 +5461,43 @@
         <v>156</v>
       </c>
       <c r="C89" s="43">
-        <v>84.1357142857143</v>
+        <v>83.507692307692295</v>
       </c>
       <c r="D89" s="44">
-        <v>71.285714285714306</v>
+        <v>70.730769230769198</v>
       </c>
       <c r="E89" s="44">
-        <v>52.414285714285697</v>
+        <v>52.307692307692299</v>
       </c>
       <c r="F89" s="45">
-        <v>60.792857142857201</v>
+        <v>60.546153846153899</v>
       </c>
       <c r="G89" s="43">
-        <v>93.623076923076894</v>
+        <v>93.224999999999994</v>
       </c>
       <c r="H89" s="44">
-        <v>91.230769230769198</v>
+        <v>91.575000000000003</v>
       </c>
       <c r="I89" s="44">
-        <v>78.438461538461496</v>
+        <v>78.45</v>
       </c>
       <c r="J89" s="45">
-        <v>83.738461538461607</v>
+        <v>83.858333333333405</v>
       </c>
       <c r="K89" s="43">
-        <v>84750.322199500006</v>
+        <v>78385.100199499997</v>
       </c>
       <c r="L89" s="44">
-        <v>6.8226239747631601</v>
+        <v>6.64171165322223</v>
       </c>
       <c r="M89" s="44">
-        <v>277162.75671019999</v>
+        <v>258205.04571020001</v>
       </c>
       <c r="N89" s="45">
-        <v>22.7547957062093</v>
+        <v>22.0593773816341</v>
       </c>
       <c r="O89" s="45">
-        <v>60.615151515151503</v>
+        <v>60.129032258064498</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5530,19 +5530,19 @@
         <v>18</v>
       </c>
       <c r="K90" s="47">
-        <v>444516.05002899998</v>
+        <v>450359.02202899999</v>
       </c>
       <c r="L90" s="48">
-        <v>11.3585603683415</v>
+        <v>11.3053117095814</v>
       </c>
       <c r="M90" s="48">
-        <v>2639368.7194480998</v>
+        <v>2654923.2574481</v>
       </c>
       <c r="N90" s="49">
-        <v>39.782968875119998</v>
+        <v>39.405172897615401</v>
       </c>
       <c r="O90" s="49">
-        <v>82.886956521739194</v>
+        <v>82.027083333333394</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
@@ -5722,7 +5722,7 @@
         <v>17.45535649264</v>
       </c>
       <c r="O94" s="45">
-        <v>56.014285714285698</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
@@ -5758,7 +5758,7 @@
         <v>592.00590299999999</v>
       </c>
       <c r="L95" s="44">
-        <v>8.91697434083334</v>
+        <v>8.9169743408333293</v>
       </c>
       <c r="M95" s="44">
         <v>1721.0882406999999</v>
@@ -5821,43 +5821,43 @@
         <v>164</v>
       </c>
       <c r="C97" s="51">
-        <v>64.674074074074099</v>
+        <v>65.707142857142898</v>
       </c>
       <c r="D97" s="52">
-        <v>42.144444444444503</v>
+        <v>42.717857142857198</v>
       </c>
       <c r="E97" s="52">
-        <v>21.711111111111101</v>
+        <v>21.05</v>
       </c>
       <c r="F97" s="53">
-        <v>29.018518518518501</v>
+        <v>29.35</v>
       </c>
       <c r="G97" s="51">
-        <v>86.855999999999995</v>
+        <v>87.126923076923106</v>
       </c>
       <c r="H97" s="52">
-        <v>72.688000000000002</v>
+        <v>72.723076923076903</v>
       </c>
       <c r="I97" s="52">
-        <v>47.508000000000003</v>
+        <v>47.938461538461503</v>
       </c>
       <c r="J97" s="53">
-        <v>55.787999999999997</v>
+        <v>56.342307692307699</v>
       </c>
       <c r="K97" s="51">
-        <v>2079.3559030000001</v>
+        <v>2096.4389030000002</v>
       </c>
       <c r="L97" s="52">
-        <v>9.5547387934230805</v>
+        <v>9.3205861987407399</v>
       </c>
       <c r="M97" s="52">
-        <v>5819.6362406999997</v>
+        <v>5913.8902406999996</v>
       </c>
       <c r="N97" s="53">
-        <v>27.519693405538501</v>
+        <v>27.161026947185199</v>
       </c>
       <c r="O97" s="53">
-        <v>24.1</v>
+        <v>23.990322580645199</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5890,16 +5890,16 @@
         <v>59.6</v>
       </c>
       <c r="K98" s="47">
-        <v>3372.9580000000001</v>
+        <v>3374.2669999999998</v>
       </c>
       <c r="L98" s="48">
-        <v>7.3730676283076999</v>
+        <v>6.9485901003571504</v>
       </c>
       <c r="M98" s="48">
-        <v>10869.0562445</v>
+        <v>10870.9432445</v>
       </c>
       <c r="N98" s="49">
-        <v>23.880698230071399</v>
+        <v>22.426116987266699</v>
       </c>
       <c r="O98" s="49">
         <v>32.924999999999997</v>
@@ -6182,11 +6182,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A79A4D61-5693-49C9-BD47-DF2B1A9FCFD8}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{712F35BC-F90D-4D2D-91F3-FD8C96469670}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1B38DBB0-4674-4F8D-8D2A-FA067B5CFEA5}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{9D75E886-3F7B-4D94-A82A-F8695204CF63}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{6A5493D1-7F83-49AB-B80A-1544E2383354}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{25616B83-D11B-4D14-B1FE-8B5034B31F6B}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D42FE9CA-C99E-4149-9025-8CFB1EC922A4}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{6E1D5889-78C7-4A38-A05D-A25667F34640}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{6BF72D86-5E7A-42EA-8340-AAED870B5C1C}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{5567FAE8-7999-4377-96CF-2AB25D5A9134}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CDDEC0C-2FD4-4089-BAC9-B579DE5B297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDD1EC1-D56B-4842-920E-C7A192A5E5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C328E810-4A4B-46BD-B772-B8F8FCBFC241}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B90C5B9F-1F5C-43CA-81D6-9FB985D01CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A141F1-790E-4F8E-97EC-61645AB807B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5C7583-4135-489B-9633-E4CD9A2D930E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4201,7 +4201,7 @@
         <v>130</v>
       </c>
       <c r="C61" s="24">
-        <v>67.358333333333405</v>
+        <v>67.358333333333306</v>
       </c>
       <c r="D61" s="25">
         <v>41.716666666666697</v>
@@ -4267,7 +4267,7 @@
         <v>52.181818181818201</v>
       </c>
       <c r="J62" s="36">
-        <v>60.569696969696999</v>
+        <v>60.569696969696899</v>
       </c>
       <c r="K62" s="34">
         <v>5365.7078105999999</v>
@@ -4294,7 +4294,7 @@
         <v>80.382142857142895</v>
       </c>
       <c r="D63" s="39">
-        <v>60.753571428571398</v>
+        <v>60.753571428571497</v>
       </c>
       <c r="E63" s="39">
         <v>39.357142857142897</v>
@@ -4348,7 +4348,7 @@
         <v>59.1727272727273</v>
       </c>
       <c r="G64" s="34">
-        <v>98.73</v>
+        <v>98.730000000000103</v>
       </c>
       <c r="H64" s="35">
         <v>95.88</v>
@@ -4426,7 +4426,7 @@
         <v>135</v>
       </c>
       <c r="C66" s="47">
-        <v>74.1142857142857</v>
+        <v>74.114285714285799</v>
       </c>
       <c r="D66" s="48">
         <v>53.065079365079399</v>
@@ -4435,7 +4435,7 @@
         <v>31.007936507936499</v>
       </c>
       <c r="F66" s="49">
-        <v>40.028571428571396</v>
+        <v>40.028571428571503</v>
       </c>
       <c r="G66" s="47">
         <v>91.241666666666703</v>
@@ -4483,7 +4483,7 @@
         <v>40.228571428571399</v>
       </c>
       <c r="G67" s="51">
-        <v>90.314285714285703</v>
+        <v>90.314285714285802</v>
       </c>
       <c r="H67" s="52">
         <v>79.185714285714297</v>
@@ -4921,7 +4921,7 @@
         <v>145</v>
       </c>
       <c r="C77" s="43">
-        <v>91.383333333333297</v>
+        <v>91.383333333333397</v>
       </c>
       <c r="D77" s="44">
         <v>80.2</v>
@@ -5161,13 +5161,13 @@
         <v>89.3</v>
       </c>
       <c r="H82" s="44">
-        <v>76.453333333333404</v>
+        <v>76.453333333333305</v>
       </c>
       <c r="I82" s="44">
         <v>52.85</v>
       </c>
       <c r="J82" s="45">
-        <v>61.3466666666667</v>
+        <v>61.3466666666666</v>
       </c>
       <c r="K82" s="43">
         <v>5233.5878106</v>
@@ -5746,13 +5746,13 @@
         <v>85.758333333333297</v>
       </c>
       <c r="H95" s="44">
-        <v>75.033333333333402</v>
+        <v>75.033333333333303</v>
       </c>
       <c r="I95" s="44">
         <v>51.341666666666697</v>
       </c>
       <c r="J95" s="45">
-        <v>59.033333333333402</v>
+        <v>59.033333333333303</v>
       </c>
       <c r="K95" s="43">
         <v>592.00590299999999</v>
@@ -5788,7 +5788,7 @@
         <v>42.209090909090897</v>
       </c>
       <c r="G96" s="47">
-        <v>92.618181818181895</v>
+        <v>92.618181818181796</v>
       </c>
       <c r="H96" s="48">
         <v>81.763636363636394</v>
@@ -5824,7 +5824,7 @@
         <v>65.707142857142898</v>
       </c>
       <c r="D97" s="52">
-        <v>42.717857142857198</v>
+        <v>42.717857142857099</v>
       </c>
       <c r="E97" s="52">
         <v>21.05</v>
@@ -5839,7 +5839,7 @@
         <v>72.723076923076903</v>
       </c>
       <c r="I97" s="52">
-        <v>47.938461538461503</v>
+        <v>47.938461538461603</v>
       </c>
       <c r="J97" s="53">
         <v>56.342307692307699</v>
@@ -6182,11 +6182,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{25616B83-D11B-4D14-B1FE-8B5034B31F6B}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D42FE9CA-C99E-4149-9025-8CFB1EC922A4}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{6E1D5889-78C7-4A38-A05D-A25667F34640}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{6BF72D86-5E7A-42EA-8340-AAED870B5C1C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5567FAE8-7999-4377-96CF-2AB25D5A9134}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7EDCCE00-9418-4EE7-8080-3599ABFB38F5}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A3817ABC-16AD-4B0A-926D-939A64ADFEBC}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{ECC2D45B-C83D-4C28-AEEB-3CF14D20A9AB}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{905EB359-B7EC-4B80-8132-2976665AC9A7}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{C8377A00-25A7-4A7B-80D6-4D58532A03FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDD1EC1-D56B-4842-920E-C7A192A5E5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5FBDEB-6713-46FF-A204-A110020860B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B90C5B9F-1F5C-43CA-81D6-9FB985D01CE7}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A45F5EDC-D0A5-4DF4-A452-6BB82286FE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5C7583-4135-489B-9633-E4CD9A2D930E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91468D34-F2A4-4069-B298-520F332D8F3A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6182,11 +6182,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7EDCCE00-9418-4EE7-8080-3599ABFB38F5}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A3817ABC-16AD-4B0A-926D-939A64ADFEBC}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{ECC2D45B-C83D-4C28-AEEB-3CF14D20A9AB}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{905EB359-B7EC-4B80-8132-2976665AC9A7}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C8377A00-25A7-4A7B-80D6-4D58532A03FD}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A6F54627-41FF-45EC-A7D8-C84A828627CC}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B962A24D-1F8E-41F6-8047-DA6B2F6112E9}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D6CC7FCA-4723-4207-81F7-69F8B7F7ACC0}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{9F118128-D8E6-480C-83D0-6F52C8033554}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{E177311A-531E-43E2-B934-DEA603BE327D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5FBDEB-6713-46FF-A204-A110020860B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE4ADB3-EB49-4861-A77F-D6B884837A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A45F5EDC-D0A5-4DF4-A452-6BB82286FE9A}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{C92676AB-B40D-4DF3-9D08-FFF6BB854E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="177">
   <si>
     <t>Tableau 12 : Numérisation</t>
   </si>
@@ -555,16 +555,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91468D34-F2A4-4069-B298-520F332D8F3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC62A15-2D87-4905-B495-4095DB2EAF39}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6078,7 +6081,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -6096,7 +6099,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -6113,7 +6116,9 @@
       <c r="O110" s="57"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -6130,7 +6135,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -6148,7 +6153,7 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -6182,13 +6187,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A6F54627-41FF-45EC-A7D8-C84A828627CC}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B962A24D-1F8E-41F6-8047-DA6B2F6112E9}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D6CC7FCA-4723-4207-81F7-69F8B7F7ACC0}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{9F118128-D8E6-480C-83D0-6F52C8033554}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E177311A-531E-43E2-B934-DEA603BE327D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CE5196F6-148E-4AA4-8E94-D5A4220995EC}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6A31F4EE-BD26-4672-9065-C21F0FB22C59}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{9FFE6245-3D14-4AB6-B59A-D9D59346E83A}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{D541B665-9BC2-4E67-B3F1-821337DB9809}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{4B233C6E-8B03-4F22-B192-09EB64AC0AB8}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{AFC475D3-0F6D-4846-980D-D0367988BC05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE4ADB3-EB49-4861-A77F-D6B884837A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B20E1E9-4CE6-4400-B6EB-C399C0968BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{C92676AB-B40D-4DF3-9D08-FFF6BB854E7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{3583A9E5-AD61-43E0-9348-26ABD57AD2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab12'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab12'!$A$1:$G$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -549,7 +549,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : Calculs des auteurs basés sur l'enquête de la Banque mondiale sur les entreprises (récupéré avril 2020), UNCTADStat Online Data Center (récupéré le 25/08/2022), CNUCED B2C E-Commerce Index Reports (2015-2020).</t>
+    <t>Source : Calculs des auteurs basés sur l'enquête de la Banque mondiale sur les entreprises (récupéré avril 2022), UNCTADStat Online Data Center (mis à jour 22/09/2023), CNUCED B2C E-Commerce Index Reports (2015-2022).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC62A15-2D87-4905-B495-4095DB2EAF39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621A0F32-3B67-448B-8402-6287F7736C99}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1399,15 +1399,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1425,7 +1425,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>37</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>72</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>74</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>76</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>80</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>82</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>84</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>37</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>87</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>89</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>91</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>93</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>95</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>97</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>37</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>100</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>102</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>104</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>106</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>108</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>110</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>112</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>114</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>116</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>118</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>120</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>122</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>124</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>126</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>128</v>
       </c>
@@ -4198,13 +4198,13 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
         <v>130</v>
       </c>
       <c r="C61" s="24">
-        <v>67.358333333333306</v>
+        <v>67.358333333333405</v>
       </c>
       <c r="D61" s="25">
         <v>41.716666666666697</v>
@@ -4243,7 +4243,7 @@
         <v>25.616666666666699</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32"/>
       <c r="B62" s="33" t="s">
         <v>131</v>
@@ -4270,7 +4270,7 @@
         <v>52.181818181818201</v>
       </c>
       <c r="J62" s="36">
-        <v>60.569696969696899</v>
+        <v>60.569696969696999</v>
       </c>
       <c r="K62" s="34">
         <v>5365.7078105999999</v>
@@ -4288,7 +4288,7 @@
         <v>29.765909090909101</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32"/>
       <c r="B63" s="37" t="s">
         <v>132</v>
@@ -4297,7 +4297,7 @@
         <v>80.382142857142895</v>
       </c>
       <c r="D63" s="39">
-        <v>60.753571428571497</v>
+        <v>60.753571428571398</v>
       </c>
       <c r="E63" s="39">
         <v>39.357142857142897</v>
@@ -4333,7 +4333,7 @@
         <v>64.945794392523396</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="42" t="s">
         <v>133</v>
@@ -4351,7 +4351,7 @@
         <v>59.1727272727273</v>
       </c>
       <c r="G64" s="34">
-        <v>98.730000000000103</v>
+        <v>98.73</v>
       </c>
       <c r="H64" s="35">
         <v>95.88</v>
@@ -4378,7 +4378,7 @@
         <v>48.859090909090902</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="33" t="s">
         <v>134</v>
@@ -4423,13 +4423,13 @@
         <v>44.869230769230803</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
       <c r="B66" s="46" t="s">
         <v>135</v>
       </c>
       <c r="C66" s="47">
-        <v>74.114285714285799</v>
+        <v>74.1142857142857</v>
       </c>
       <c r="D66" s="48">
         <v>53.065079365079399</v>
@@ -4438,7 +4438,7 @@
         <v>31.007936507936499</v>
       </c>
       <c r="F66" s="49">
-        <v>40.028571428571503</v>
+        <v>40.028571428571396</v>
       </c>
       <c r="G66" s="47">
         <v>91.241666666666703</v>
@@ -4468,7 +4468,7 @@
         <v>54.694701986755</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="50" t="s">
         <v>136</v>
@@ -4486,7 +4486,7 @@
         <v>40.228571428571399</v>
       </c>
       <c r="G67" s="51">
-        <v>90.314285714285802</v>
+        <v>90.314285714285703</v>
       </c>
       <c r="H67" s="52">
         <v>79.185714285714297</v>
@@ -4513,7 +4513,7 @@
         <v>30.422222222222199</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="33" t="s">
         <v>137</v>
@@ -4558,7 +4558,7 @@
         <v>27.984999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="33" t="s">
         <v>138</v>
@@ -4603,7 +4603,7 @@
         <v>28.316666666666698</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="33" t="s">
         <v>139</v>
@@ -4648,7 +4648,7 @@
         <v>21.112500000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="33" t="s">
         <v>140</v>
@@ -4693,7 +4693,7 @@
         <v>25.616666666666699</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="33" t="s">
         <v>141</v>
@@ -4738,7 +4738,7 @@
         <v>32.159999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="33" t="s">
         <v>142</v>
@@ -4783,7 +4783,7 @@
         <v>30.566666666666698</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="33" t="s">
         <v>142</v>
@@ -4828,7 +4828,7 @@
         <v>43.26</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="46" t="s">
         <v>143</v>
@@ -4873,7 +4873,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="50" t="s">
         <v>144</v>
@@ -4918,13 +4918,13 @@
         <v>55.977777777777803</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="33" t="s">
         <v>145</v>
       </c>
       <c r="C77" s="43">
-        <v>91.383333333333397</v>
+        <v>91.383333333333297</v>
       </c>
       <c r="D77" s="44">
         <v>80.2</v>
@@ -4963,7 +4963,7 @@
         <v>52.977777777777803</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="33" t="s">
         <v>145</v>
@@ -5008,7 +5008,7 @@
         <v>84.325925925926001</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="46" t="s">
         <v>146</v>
@@ -5053,7 +5053,7 @@
         <v>84.047368421052695</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="50" t="s">
         <v>147</v>
@@ -5098,7 +5098,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="33" t="s">
         <v>148</v>
@@ -5143,7 +5143,7 @@
         <v>58.217647058823502</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="33" t="s">
         <v>149</v>
@@ -5164,13 +5164,13 @@
         <v>89.3</v>
       </c>
       <c r="H82" s="44">
-        <v>76.453333333333305</v>
+        <v>76.453333333333404</v>
       </c>
       <c r="I82" s="44">
         <v>52.85</v>
       </c>
       <c r="J82" s="45">
-        <v>61.3466666666666</v>
+        <v>61.3466666666667</v>
       </c>
       <c r="K82" s="43">
         <v>5233.5878106</v>
@@ -5188,7 +5188,7 @@
         <v>29.967567567567599</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
       <c r="B83" s="46" t="s">
         <v>150</v>
@@ -5233,7 +5233,7 @@
         <v>66.216666666666697</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="50" t="s">
         <v>151</v>
@@ -5278,7 +5278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="33" t="s">
         <v>152</v>
@@ -5323,7 +5323,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="33" t="s">
         <v>153</v>
@@ -5368,7 +5368,7 @@
         <v>34.125</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="33" t="s">
         <v>154</v>
@@ -5413,7 +5413,7 @@
         <v>43.466666666666697</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="33" t="s">
         <v>155</v>
@@ -5458,7 +5458,7 @@
         <v>47.533333333333303</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="33" t="s">
         <v>156</v>
@@ -5503,7 +5503,7 @@
         <v>60.129032258064498</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
       <c r="B90" s="46" t="s">
         <v>157</v>
@@ -5548,7 +5548,7 @@
         <v>82.027083333333394</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="50" t="s">
         <v>158</v>
@@ -5593,7 +5593,7 @@
         <v>21.211538461538499</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="33" t="s">
         <v>159</v>
@@ -5638,7 +5638,7 @@
         <v>28.077777777777801</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="33" t="s">
         <v>160</v>
@@ -5683,7 +5683,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="33" t="s">
         <v>161</v>
@@ -5728,7 +5728,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="33" t="s">
         <v>162</v>
@@ -5749,13 +5749,13 @@
         <v>85.758333333333297</v>
       </c>
       <c r="H95" s="44">
-        <v>75.033333333333303</v>
+        <v>75.033333333333402</v>
       </c>
       <c r="I95" s="44">
         <v>51.341666666666697</v>
       </c>
       <c r="J95" s="45">
-        <v>59.033333333333303</v>
+        <v>59.033333333333402</v>
       </c>
       <c r="K95" s="43">
         <v>592.00590299999999</v>
@@ -5773,7 +5773,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="46" t="s">
         <v>163</v>
@@ -5791,7 +5791,7 @@
         <v>42.209090909090897</v>
       </c>
       <c r="G96" s="47">
-        <v>92.618181818181796</v>
+        <v>92.618181818181895</v>
       </c>
       <c r="H96" s="48">
         <v>81.763636363636394</v>
@@ -5818,97 +5818,97 @@
         <v>47.213333333333303</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="50" t="s">
         <v>164</v>
       </c>
       <c r="C97" s="51">
-        <v>65.707142857142898</v>
+        <v>66.330434782608705</v>
       </c>
       <c r="D97" s="52">
-        <v>42.717857142857099</v>
+        <v>42.991304347826102</v>
       </c>
       <c r="E97" s="52">
-        <v>21.05</v>
+        <v>20.4434782608696</v>
       </c>
       <c r="F97" s="53">
-        <v>29.35</v>
+        <v>29.539130434782599</v>
       </c>
       <c r="G97" s="51">
-        <v>87.126923076923106</v>
+        <v>88.714285714285694</v>
       </c>
       <c r="H97" s="52">
-        <v>72.723076923076903</v>
+        <v>73.109523809523793</v>
       </c>
       <c r="I97" s="52">
-        <v>47.938461538461603</v>
+        <v>49.5</v>
       </c>
       <c r="J97" s="53">
-        <v>56.342307692307699</v>
+        <v>58.257142857142902</v>
       </c>
       <c r="K97" s="51">
-        <v>2096.4389030000002</v>
+        <v>2093.8479029999999</v>
       </c>
       <c r="L97" s="52">
-        <v>9.3205861987407399</v>
+        <v>10.409098627500001</v>
       </c>
       <c r="M97" s="52">
-        <v>5913.8902406999996</v>
+        <v>5752.4042406999997</v>
       </c>
       <c r="N97" s="53">
-        <v>27.161026947185199</v>
+        <v>26.224801780958298</v>
       </c>
       <c r="O97" s="53">
-        <v>23.990322580645199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.1884615384615</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
       <c r="B98" s="46" t="s">
         <v>165</v>
       </c>
       <c r="C98" s="47">
-        <v>77.525000000000006</v>
+        <v>79.616666666666703</v>
       </c>
       <c r="D98" s="48">
-        <v>50.25</v>
+        <v>52.683333333333302</v>
       </c>
       <c r="E98" s="48">
-        <v>23.95</v>
+        <v>27.05</v>
       </c>
       <c r="F98" s="49">
-        <v>35.725000000000001</v>
+        <v>40.5</v>
       </c>
       <c r="G98" s="47">
-        <v>94.762500000000003</v>
+        <v>93.8333333333333</v>
       </c>
       <c r="H98" s="48">
-        <v>71.775000000000006</v>
+        <v>72.816666666666706</v>
       </c>
       <c r="I98" s="48">
-        <v>48.587499999999999</v>
+        <v>53.016666666666701</v>
       </c>
       <c r="J98" s="49">
-        <v>59.6</v>
+        <v>65.016666666666694</v>
       </c>
       <c r="K98" s="47">
-        <v>3374.2669999999998</v>
+        <v>3202.1190000000001</v>
       </c>
       <c r="L98" s="48">
-        <v>6.9485901003571504</v>
+        <v>7.608918708</v>
       </c>
       <c r="M98" s="48">
-        <v>10870.9432445</v>
+        <v>8769.7732445000001</v>
       </c>
       <c r="N98" s="49">
-        <v>22.426116987266699</v>
+        <v>22.5908406223333</v>
       </c>
       <c r="O98" s="49">
-        <v>32.924999999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+        <v>38.590909090909101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -5925,7 +5925,7 @@
       <c r="N99" s="56"/>
       <c r="O99" s="56"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -5943,7 +5943,7 @@
       <c r="N100" s="57"/>
       <c r="O100" s="57"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="N101" s="57"/>
       <c r="O101" s="57"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="N102" s="57"/>
       <c r="O102" s="57"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -5997,7 +5997,7 @@
       <c r="N103" s="57"/>
       <c r="O103" s="57"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="N104" s="57"/>
       <c r="O104" s="57"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -6030,7 +6030,7 @@
       <c r="N105" s="57"/>
       <c r="O105" s="57"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -6045,7 +6045,7 @@
       <c r="N106" s="57"/>
       <c r="O106" s="57"/>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>171</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="N107" s="57"/>
       <c r="O107" s="57"/>
     </row>
-    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -6079,7 +6079,7 @@
       <c r="N108" s="57"/>
       <c r="O108" s="57"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="N109" s="57"/>
       <c r="O109" s="57"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>175</v>
       </c>
@@ -6115,7 +6115,7 @@
       <c r="N110" s="57"/>
       <c r="O110" s="57"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>176</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="N111" s="57"/>
       <c r="O111" s="57"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="N112" s="57"/>
       <c r="O112" s="57"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>173</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="N113" s="57"/>
       <c r="O113" s="57"/>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -6187,12 +6187,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CE5196F6-148E-4AA4-8E94-D5A4220995EC}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6A31F4EE-BD26-4672-9065-C21F0FB22C59}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{9FFE6245-3D14-4AB6-B59A-D9D59346E83A}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{D541B665-9BC2-4E67-B3F1-821337DB9809}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{4B233C6E-8B03-4F22-B192-09EB64AC0AB8}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{AFC475D3-0F6D-4846-980D-D0367988BC05}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ABDA50D7-1AC5-4EA2-AA22-EF006A9610BF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{58A6EA40-839C-4967-B4E9-315717232EBA}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{67B6644A-8FA3-4BA8-982C-592D71125FBD}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{409C66CC-B6C2-4676-AE67-0E9BF75C08BE}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{61D1B56B-4CC2-47D7-9958-6BB45ADAAECF}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{17DC68E7-5C06-428F-888B-E765A43AA14A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId7"/>
